--- a/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="32" customWidth="1" min="8" max="8"/>
+    <col width="33" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
@@ -516,17 +516,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>39000,00</t>
+          <t>39100,00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>29950,00</t>
+          <t>24855,00</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>45 x R$ 340.55</t>
+          <t>33 x R$ 538.97</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -560,22 +560,22 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>44500,00</t>
+          <t>39300,00</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>25725,00</t>
+          <t>29965,00</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 1057.23</t>
+          <t>44 x R$ 344.95</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>58600,00</t>
+          <t>43200,00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>38830,00</t>
+          <t>31460,00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -629,8 +629,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 686.00
-94 x R$ 431.00</t>
+          <t>39 x R$ 318.46</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -649,22 +648,22 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>61600,00</t>
+          <t>44700,00</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>41080,00</t>
+          <t>25735,00</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -674,8 +673,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 723.00
-94 x R$ 454.20</t>
+          <t>26 x R$ 1057.23</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -694,17 +692,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>62000,00</t>
+          <t>51000,00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>47600,00</t>
+          <t>29450,00</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -719,7 +717,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 562.40</t>
+          <t>37 x R$ 1044.02</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -738,22 +736,22 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>65300,00</t>
+          <t>59350,00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>32165,00</t>
+          <t>33867,50</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -763,7 +761,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>62 x R$ 1145.00</t>
+          <t>45 x R$ 718.11</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -782,22 +780,22 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>77000,00</t>
+          <t>62400,00</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>35750,00</t>
+          <t>48020,00</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -807,7 +805,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 2302.00</t>
+          <t>32 x R$ 546.01</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -826,17 +824,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>81000,00</t>
+          <t>62600,00</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>51950,00</t>
+          <t>25130,00</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -851,7 +849,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>66 x R$ 761.60</t>
+          <t>45 x R$ 1549.77</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -870,22 +868,22 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>88350,00</t>
+          <t>64100,00</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>43917,50</t>
+          <t>40105,00</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -895,7 +893,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>21 x R$ 3149.66</t>
+          <t>34 x R$ 1228.00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -914,22 +912,22 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>91200,00</t>
+          <t>65800,00</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>49060,00</t>
+          <t>32190,00</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -939,7 +937,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>66 x R$ 992.00</t>
+          <t>60 x R$ 1145.00</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -958,22 +956,22 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>91250,00</t>
+          <t>71700,00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>49462,50</t>
+          <t>36485,00</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -983,7 +981,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>68 x R$ 1015.55</t>
+          <t>17 x R$ 2480.34</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -1002,17 +1000,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>115600,00</t>
+          <t>77600,00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>55080,00</t>
+          <t>47780,00</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1027,7 +1025,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 2729.07</t>
+          <t>39 x R$ 1022.32</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -1046,17 +1044,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>115600,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>52680,00</t>
+          <t>46450,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1071,7 +1069,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 3193.82</t>
+          <t>20 x R$ 3184.65</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1090,17 +1088,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>120200,00</t>
+          <t>92150,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>77910,00</t>
+          <t>52107,50</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1115,8 +1113,7 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1409.00
-94 x R$ 885.35</t>
+          <t>67 x R$ 1015.55</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1135,17 +1132,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>139600,00</t>
+          <t>116500,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>88880,00</t>
+          <t>57825,00</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1160,8 +1157,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1447.00
-75 x R$ 1192.60</t>
+          <t>35 x R$ 2729.07</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1180,17 +1176,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>154600,00</t>
+          <t>116500,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>104730,00</t>
+          <t>55725,00</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1205,8 +1201,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1828.00
-85 x R$ 976.00</t>
+          <t>30 x R$ 3193.82</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1220,22 +1215,22 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>167250,00</t>
+          <t>99600,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>86862,50</t>
+          <t>54880,00</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1250,7 +1245,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 3568.70</t>
+          <t>100 x R$ 616.00</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1269,17 +1264,17 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>139000,00</t>
+          <t>140000,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>87950,00</t>
+          <t>84000,00</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1294,7 +1289,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>61 x R$ 1356.82</t>
+          <t>60 x R$ 1356.82</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1313,17 +1308,17 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>403000,00</t>
+          <t>404000,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>250150,00</t>
+          <t>247200,00</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1338,11 +1333,56 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>159 x R$ 1898.72</t>
+          <t>158 x R$ 1898.72</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
       <c r="J20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>VC1020</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>544000,00</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>329200,00</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>60 x R$ 3255.00
+98 x R$ 1898.00</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,10 +524,8 @@
           <t>24855,00</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="E2" s="3" t="n">
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -568,10 +566,8 @@
           <t>29965,00</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="E3" s="3" t="n">
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -612,10 +608,8 @@
           <t>31460,00</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="E4" s="3" t="n">
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -656,10 +650,8 @@
           <t>25735,00</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="E5" s="3" t="n">
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -700,10 +692,8 @@
           <t>29450,00</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="E6" s="3" t="n">
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
@@ -744,10 +734,8 @@
           <t>33867,50</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="E7" s="3" t="n">
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
@@ -788,10 +776,8 @@
           <t>48020,00</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="E8" s="3" t="n">
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -832,10 +818,8 @@
           <t>25130,00</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="E9" s="3" t="n">
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
@@ -876,10 +860,8 @@
           <t>40105,00</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="E10" s="3" t="n">
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
@@ -917,7 +899,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>32190,00</t>
+          <t>30190,00</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -964,10 +946,8 @@
           <t>36485,00</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E12" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -1008,10 +988,8 @@
           <t>47780,00</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="E13" s="3" t="n">
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
@@ -1044,17 +1022,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>89000,00</t>
+          <t>78000,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>46450,00</t>
+          <t>49800,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1069,7 +1047,8 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>20 x R$ 3184.65</t>
+          <t>1 x R$ 1645.00
+41 x R$ 1061.30</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1088,17 +1067,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>92150,00</t>
+          <t>82000,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>52107,50</t>
+          <t>50000,00</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1113,7 +1092,8 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>67 x R$ 1015.55</t>
+          <t>1 x R$ 1480.43
+54 x R$ 933.90</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1132,17 +1112,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>116500,00</t>
+          <t>84600,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>57825,00</t>
+          <t>57130,00</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1157,7 +1137,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 2729.07</t>
+          <t>46 x R$ 915.70</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1176,17 +1156,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>116500,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>55725,00</t>
+          <t>46450,00</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1201,7 +1181,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 3193.82</t>
+          <t>20 x R$ 3184.65</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1215,22 +1195,22 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Imóveis</t>
+          <t>Veículos</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>99600,00</t>
+          <t>92150,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>54880,00</t>
+          <t>52107,50</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1245,7 +1225,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>100 x R$ 616.00</t>
+          <t>67 x R$ 1015.55</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1259,27 +1239,27 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Imóveis</t>
+          <t>Veículos</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>140000,00</t>
+          <t>93300,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>84000,00</t>
+          <t>67565,00</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -1289,7 +1269,8 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>60 x R$ 1356.82</t>
+          <t>1 x R$ 1210.00
+67 x R$ 725.62</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1303,27 +1284,27 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Imóveis</t>
+          <t>Veículos</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>404000,00</t>
+          <t>103400,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>247200,00</t>
+          <t>62070,00</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -1333,7 +1314,8 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>158 x R$ 1898.72</t>
+          <t>1 x R$ 1860.00
+60 x R$ 1225.30</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -1347,42 +1329,442 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>116500,00</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>57825,00</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>35 x R$ 2729.07</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>VC1021</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>116500,00</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>55725,00</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>30 x R$ 3193.82</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>VC1022</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>175400,00</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>101770,00</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>1 x R$ 3117.00
+56 x R$ 2042.00</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>VC1023</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>175400,00</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>113770,00</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>1 x R$ 2805.00
+48 x R$ 1707.25</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>VC1024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>351000,00</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>212550,00</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>1 x R$ 5922.00
+52 x R$ 3750.00</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>VC1025</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>526500,00</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>316325,00</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>1 x R$ 8319.00
+59 x R$ 5214.00</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>VC1026</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>99600,00</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>54880,00</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>100 x R$ 616.00</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>VC1027</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>140000,00</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>84000,00</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>60 x R$ 1356.82</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>VC1028</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>404000,00</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>247200,00</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>158 x R$ 1898.72</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>VC1029</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>544000,00</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>329200,00</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>60 x R$ 3255.00
 98 x R$ 1898.00</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_venderseuconsorcio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="33" customWidth="1" min="8" max="8"/>
+    <col width="32" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
@@ -516,22 +516,22 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>39300,00</t>
+          <t>44700,00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>29965,00</t>
+          <t>25735,00</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>44 x R$ 344.95</t>
+          <t>26 x R$ 1057.23</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -560,17 +560,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>44700,00</t>
+          <t>51200,00</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>25735,00</t>
+          <t>29460,00</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>26 x R$ 1057.23</t>
+          <t>36 x R$ 1030.09</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>51000,00</t>
+          <t>62800,00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>29450,00</t>
+          <t>48040,00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>37 x R$ 1044.02</t>
+          <t>31 x R$ 545.52</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -648,22 +648,22 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>59350,00</t>
+          <t>64300,00</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>33867,50</t>
+          <t>40115,00</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>45 x R$ 718.11</t>
+          <t>33 x R$ 1228.00</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>62600,00</t>
+          <t>65800,00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>25130,00</t>
+          <t>30190,00</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>45 x R$ 1549.77</t>
+          <t>60 x R$ 1145.00</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -736,22 +736,22 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>62700,00</t>
+          <t>78100,00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>48035,00</t>
+          <t>39905,00</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 562.42</t>
+          <t>25 x R$ 2332.60</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -780,22 +780,22 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>64100,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>40105,00</t>
+          <t>33900,00</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>34 x R$ 1228.00</t>
+          <t>44 x R$ 1643.91</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -824,22 +824,22 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>65800,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>30190,00</t>
+          <t>36900,00</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -849,7 +849,8 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>60 x R$ 1145.00</t>
+          <t>1 x R$ 2008.00
+42 x R$ 1767.80</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -868,17 +869,17 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>72000,00</t>
+          <t>90200,00</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>36500,00</t>
+          <t>47010,00</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -893,7 +894,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>17 x R$ 2480.34</t>
+          <t>52 x R$ 1516.00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -912,17 +913,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>77600,00</t>
+          <t>90550,00</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>47780,00</t>
+          <t>58427,50</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -937,7 +938,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1022.32</t>
+          <t>57 x R$ 758.48</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -956,17 +957,17 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>78100,00</t>
+          <t>106500,00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>39905,00</t>
+          <t>59325,00</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -981,7 +982,8 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>25 x R$ 2332.60</t>
+          <t>1 x R$ 2932.00
+26 x R$ 2676.60</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -1000,17 +1002,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>82300,00</t>
+          <t>108500,00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>52615,00</t>
+          <t>54525,00</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1025,7 +1027,8 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>54 x R$ 934.00</t>
+          <t>1 x R$ 2608.00
+41 x R$ 2111.00</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -1044,17 +1047,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>89000,00</t>
+          <t>160000,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>46450,00</t>
+          <t>69000,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1069,7 +1072,8 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>20 x R$ 3184.65</t>
+          <t>1 x R$ 4108.00
+41 x R$ 3511.50</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1088,22 +1092,22 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>90200,00</t>
+          <t>176000,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>46010,00</t>
+          <t>105700,00</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
@@ -1113,7 +1117,7 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>53 x R$ 1516.00</t>
+          <t>52 x R$ 2275.00</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1132,17 +1136,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>91000,00</t>
+          <t>336000,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>60550,00</t>
+          <t>185800,00</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1157,8 +1161,8 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1527.00
-56 x R$ 861.00</t>
+          <t>1 x R$ 5431.00
+47 x R$ 4834.40</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1172,27 +1176,27 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>116500,00</t>
+          <t>82350,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>57825,00</t>
+          <t>48017,50</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1202,7 +1206,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 2729.07</t>
+          <t>97 x R$ 457.85</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1216,22 +1220,22 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>116500,00</t>
+          <t>103500,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>55725,00</t>
+          <t>55075,00</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1246,7 +1250,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 3193.82</t>
+          <t>112 x R$ 625.09</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1260,27 +1264,27 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>352000,00</t>
+          <t>140600,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>212600,00</t>
+          <t>84030,00</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -1290,7 +1294,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>62 x R$ 3734.00</t>
+          <t>61 x R$ 1359.26</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1304,27 +1308,27 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>527000,00</t>
+          <t>222000,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>326250,00</t>
+          <t>121000,00</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -1334,7 +1338,7 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>63 x R$ 5056.00</t>
+          <t>127 x R$ 1581.14</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -1353,22 +1357,22 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>132500,00</t>
+          <t>390000,00</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>83625,00</t>
+          <t>174500,00</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
@@ -1378,8 +1382,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1858.50
-62 x R$ 1214.40</t>
+          <t>145 x R$ 2533.70</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -1398,17 +1401,17 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>140600,00</t>
+          <t>451000,00</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>84030,00</t>
+          <t>244550,00</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1423,321 +1426,11 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>61 x R$ 1359.26</t>
+          <t>134 x R$ 2856.39</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
       <c r="J22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>VC1022</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>206500,00</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>125325,00</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>1 x R$ 2194.00
-183 x R$ 874.15</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr"/>
-      <c r="J23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>VC1023</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>303000,00</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>170150,00</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>110 x R$ 2065.00</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>VC1024</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>390000,00</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>174500,00</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>145 x R$ 2533.70</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr"/>
-      <c r="J25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>VC1025</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>405500,00</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>248775,00</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>158 x R$ 1898.12</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr"/>
-      <c r="J26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>VC1026</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>451000,00</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>244550,00</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>134 x R$ 2856.39</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>VC1027</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>510000,00</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>293500,00</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>1 x R$ 4260.00
-131 x R$ 2939.00</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr"/>
-      <c r="J28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>VC1028</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>1025000,00</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>531250,00</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>104 x R$ 8159.73</t>
-        </is>
-      </c>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
